--- a/ReillyRule/ReillyRule.xlsx
+++ b/ReillyRule/ReillyRule.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027" calcOnSave="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1316,7 +1316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F289"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -19272,7 +19272,7 @@
         <v>279</v>
       </c>
       <c r="M258">
-        <f t="shared" ref="M258:M321" si="9">J258/(J258+L258)</f>
+        <f t="shared" ref="M258:M289" si="9">J258/(J258+L258)</f>
         <v>0.27154046997389036</v>
       </c>
       <c r="N258" s="5">
@@ -20722,7 +20722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O270"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N1" sqref="N1:O1048576"/>
     </sheetView>
   </sheetViews>
